--- a/biology/Zoologie/Barbatula_quignardi/Barbatula_quignardi.xlsx
+++ b/biology/Zoologie/Barbatula_quignardi/Barbatula_quignardi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Loche du Languedoc
-Barbatula quignardi, communément appelé la Loche du Languedoc[2], est une espèce de poissons à nageoires rayonnées du genre Barbatula. Ce sont des poissons benthiques d'eau douce de la famille des Nemacheilidae, originaires d'Europe.
+Barbatula quignardi, communément appelé la Loche du Languedoc, est une espèce de poissons à nageoires rayonnées du genre Barbatula. Ce sont des poissons benthiques d'eau douce de la famille des Nemacheilidae, originaires d'Europe.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition, habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barbatula quignardi vit en eaux douces. On la rencontre en Espagne, dans les bassins hydrographiques de l'Èbre, de la Bidassoa et du Nervion, et en France dans les bassins du Lez, du Tech, de l'Adour et de la Garonne[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbatula quignardi vit en eaux douces. On la rencontre en Espagne, dans les bassins hydrographiques de l'Èbre, de la Bidassoa et du Nervion, et en France dans les bassins du Lez, du Tech, de l'Adour et de la Garonne.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barbatula quignardi peut mesurer jusqu'à 70 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbatula quignardi peut mesurer jusqu'à 70 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, quignardi, lui a été donné en l'honneur de Jean-Pierre Quignard (1938-2013), ichtyologiste français qui a fourni les spécimens types[4]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, quignardi, lui a été donné en l'honneur de Jean-Pierre Quignard (1938-2013), ichtyologiste français qui a fourni les spécimens types. 
 </t>
         </is>
       </c>
